--- a/testData/nopCommerce_LoginData.xlsx
+++ b/testData/nopCommerce_LoginData.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jf01222\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kasia\Desktop\Project Selenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{943C159B-2D6C-4524-85C2-A82AC6798BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="17010" windowHeight="9975" xr2:uid="{07702C77-B467-4EF7-9930-C2E7C3ACEDDC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,9 +53,6 @@
     <t>valid</t>
   </si>
   <si>
-    <t>kasiakarol94@gmail.com</t>
-  </si>
-  <si>
     <t>Kasia12345!</t>
   </si>
   <si>
@@ -73,12 +69,15 @@
   </si>
   <si>
     <t>fdafadsf</t>
+  </si>
+  <si>
+    <t>kasiadanang@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -113,7 +112,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -424,17 +423,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC172BE8-0200-4EB6-AA4F-5FE98490844A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -462,10 +461,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -473,24 +472,24 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
